--- a/biology/Origine et évolution du vivant/Mammalia_(classification_phylogénétique)/Mammalia_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Mammalia_(classification_phylogénétique)/Mammalia_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mammalia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Mammalia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Mammalia (ou Mammifères), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mammalia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Mammalia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1168,7 +1182,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mammalia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Mammalia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1186,7 +1200,9 @@
           <t>Débat scientifique relatif à la phylogénie des Mammalia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La phylogénie des Mammifères est l'un des lieux où s'affrontent les tenants des analyses moléculaires et les paléontologues, bien que des deux côtés elle soit instable ! On a suivi ci-dessus les résultats courants des phylogénies moléculaires (cf. Murphy), d'où la place incertaine d'un certain nombre de taxa fossiles. Les Afrothériens apparaissent à la base de l'arbre des Placentaires, les Insectivores et les Ongulés, polyphylétiques, ont éclaté en plusieurs branches indépendantes.
 Sur la difficulté de construire une phylogénie sur les seuls critères morphologiques (seuls disponibles pour les fossiles), il est profitable de lire l'article de 2007 de Springer et alii.
@@ -1320,7 +1336,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mammalia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Mammalia_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1340,8 +1356,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sources bibliographiques de référence
-Mark S. Springer, Angela Burk-Herrick, Robert Meredith, Eduardo Eizirik, Emma Teeling, Stephen J. O'Brien et William J. Murphy : « The Adequacy of Morphology for Reconstructing the Early History of Placental Mammals », Syst. Biol., vol. 56, no 4, 2007, p. 673-684
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mark S. Springer, Angela Burk-Herrick, Robert Meredith, Eduardo Eizirik, Emma Teeling, Stephen J. O'Brien et William J. Murphy : « The Adequacy of Morphology for Reconstructing the Early History of Placental Mammals », Syst. Biol., vol. 56, no 4, 2007, p. 673-684
 J.R. Wible, G.W. Rougier, M.J. Novacek et R.J. Asher : « Cretaceous eutherians and Laurasian origin for placental mammals near the K/T boundary », Nature vol. 447, 2007, p. 1003-1006
 Kenneth David Rose : The Beginning of the Age of Mammals, Johns Hopkins University Press, Baltimore, 2006, 428 p.,  (ISBN 978-0801884726), extraits ici
 Shawn P. Zack, Tonya A. Penkrot, David W. Krause et Mary C. Maas : « A new apheliscine “condylarth” mammal from the late Paleocene of Montana and Alberta and the phylogeny of “hyopsodontids” », Acta Palaeontologica Polonica, vol. 50, no 4, 2005, p. 809–830
@@ -1349,9 +1370,43 @@
 Mark S. Springer, Michael J. Stanhope, Ole Madsen et Wilfried W. de Jong : « Molecules consolidate the placental mammal tree », Treds in Ecology and Evolution, vol. 19, n°8, 2004, p. 430-438
 J. David Archibald : « Timing and biogeography of the eutherian radiation: fossils and molecules compared », Molecular Phylogenetics and Evolution, vol. 28, 2003, p. 350–359
 William J. Murphy, Eduardo Eizirik, Stephen J. O'Brien, Ole Madsen, Mark Scally, Christophe J. Douady, Emma Teeling, Oliver A. Ryder, Michael J. Stanhope, Wilfried W. de Jong et Mark S. Springer : « Resolution of the Early Placental Mammal Radiation Using Bayesian Phylogenetics », Science, vol. 294, no 5550, 2001, p. 2348-2351
-Richard L. Cifelli : « Early mammalian radiations », Journal of Paleontology, 2001
-Sources Internet
-Darren Naish (2008) « Invasion of the marsupial weasels, dogs, cats and bears... or is it? » sur Tetrapod Zoology
+Richard L. Cifelli : « Early mammalian radiations », Journal of Paleontology, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mammalia_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mammalia_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources Internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Darren Naish (2008) « Invasion of the marsupial weasels, dogs, cats and bears... or is it? » sur Tetrapod Zoology
 Michael J. Ryan (2007) « Maelestes &amp; the Origin of Placental Mammals » sur Palaeoblog
 Paleocene mammals of the world
 The Ultimate Ungulate Page
